--- a/original synthesisi data/zeolite_CBU_original_data.xlsx
+++ b/original synthesisi data/zeolite_CBU_original_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamamoto02\OneDrive - 北九州市立大学\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7A9618-1B2E-49DD-8887-F2725D925FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC14FAA-1880-47D3-AEF1-504D8B61745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="825" windowWidth="28800" windowHeight="17175" xr2:uid="{FCCE0312-9F00-4531-8FAE-DA72F6A5CF28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FCCE0312-9F00-4531-8FAE-DA72F6A5CF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="933">
   <si>
     <t>sample</t>
     <phoneticPr fontId="1"/>
@@ -5566,6 +5566,9 @@
   <si>
     <t>chemical Science, 25, 7068-7075 (2023).</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template-free synthesis and catalytic behaviour of aluminium-rich MFI-type zeolites</t>
   </si>
 </sst>
 </file>
@@ -6153,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D669E295-AA3B-4065-AE24-33713C9C37E4}">
   <dimension ref="A1:R549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q425" sqref="Q425"/>
+    <sheetView tabSelected="1" topLeftCell="F474" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M488" sqref="M488:N488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18501,6 +18504,15 @@
       <c r="M421" t="s">
         <v>476</v>
       </c>
+      <c r="N421" t="s">
+        <v>38</v>
+      </c>
+      <c r="O421" t="s">
+        <v>39</v>
+      </c>
+      <c r="P421" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
@@ -19620,7 +19632,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>691</v>
       </c>
@@ -19646,7 +19658,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>692</v>
       </c>
@@ -19672,7 +19684,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>693</v>
       </c>
@@ -19698,7 +19710,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>694</v>
       </c>
@@ -19724,7 +19736,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>695</v>
       </c>
@@ -19750,7 +19762,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>696</v>
       </c>
@@ -19775,8 +19787,17 @@
       <c r="M470" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N470" t="s">
+        <v>120</v>
+      </c>
+      <c r="O470" t="s">
+        <v>121</v>
+      </c>
+      <c r="P470" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>697</v>
       </c>
@@ -19802,7 +19823,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>698</v>
       </c>
@@ -19828,7 +19849,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>699</v>
       </c>
@@ -19854,7 +19875,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>700</v>
       </c>
@@ -19880,7 +19901,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>701</v>
       </c>
@@ -19906,7 +19927,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>702</v>
       </c>
@@ -19932,7 +19953,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>703</v>
       </c>
@@ -19958,7 +19979,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>704</v>
       </c>
@@ -19984,7 +20005,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>705</v>
       </c>
@@ -20010,7 +20031,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>706</v>
       </c>
@@ -20036,7 +20057,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>707</v>
       </c>
@@ -20062,7 +20083,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>708</v>
       </c>
@@ -20088,7 +20109,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>709</v>
       </c>
@@ -20114,7 +20135,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>710</v>
       </c>
@@ -20140,7 +20161,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>711</v>
       </c>
@@ -20166,7 +20187,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>712</v>
       </c>
@@ -20192,7 +20213,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>713</v>
       </c>
@@ -20218,7 +20239,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>714</v>
       </c>
@@ -20244,7 +20265,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>715</v>
       </c>
@@ -20270,7 +20291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>716</v>
       </c>
@@ -20296,7 +20317,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>717</v>
       </c>
@@ -20322,7 +20343,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>718</v>
       </c>
@@ -20348,7 +20369,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>719</v>
       </c>
@@ -20374,7 +20395,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>720</v>
       </c>
@@ -20400,7 +20421,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>721</v>
       </c>
@@ -20426,8 +20447,11 @@
       <c r="M495" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N495" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>722</v>
       </c>
@@ -20451,6 +20475,15 @@
       </c>
       <c r="M496" t="s">
         <v>498</v>
+      </c>
+      <c r="N496" t="s">
+        <v>177</v>
+      </c>
+      <c r="O496" t="s">
+        <v>178</v>
+      </c>
+      <c r="P496" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.4">
